--- a/程序员客栈项目/因卓科技教育平台/因卓教育阶段一/原型设计/因卓教育导入模板/班级信息.xlsx
+++ b/程序员客栈项目/因卓科技教育平台/因卓教育阶段一/原型设计/因卓教育导入模板/班级信息.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18201"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\personal\33_OpenSource\part-time-job\程序员客栈项目\因卓科技教育平台\原型设计\因卓教育导入模板\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\个人文件\other\因卓科技教育平台\导入模板\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="108" windowWidth="12768" windowHeight="5712"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="班级信息" sheetId="5" r:id="rId1"/>
@@ -20,12 +20,12 @@
     <definedName name="小学部">#REF!</definedName>
     <definedName name="学部">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
   <si>
     <t>班级名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -39,49 +39,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>班主任工号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小学部</t>
-  </si>
-  <si>
-    <t>二年级</t>
-  </si>
-  <si>
-    <t>三年级</t>
-  </si>
-  <si>
-    <t>六年级</t>
-  </si>
-  <si>
-    <t>初中部</t>
-  </si>
-  <si>
-    <t>初二</t>
-  </si>
-  <si>
-    <t>高中部</t>
-  </si>
-  <si>
-    <t>高一</t>
-  </si>
-  <si>
-    <t>高二</t>
-  </si>
-  <si>
-    <t>高三</t>
-  </si>
-  <si>
-    <t>一年级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>四年级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>五年级</t>
+    <t>班级简介</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>班主任身份证号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1班</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2班</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3班</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4班</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5班</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -89,98 +71,54 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>初三</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>A</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>班</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>B</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>班</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高一</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高二</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高三</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>C</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>班</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>班级简介</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>啊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>耶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>初一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是初一1班</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是初一2班</t>
+  </si>
+  <si>
+    <t>这是初一3班</t>
+  </si>
+  <si>
+    <t>这是初一4班</t>
+  </si>
+  <si>
+    <t>这是初一5班</t>
   </si>
   <si>
     <t>2017</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
+    <t>210201199202102601</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>330302197803137594</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>120100198908220812</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>350626199201282532</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>511024197611218919</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -212,13 +150,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -250,15 +188,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="fill"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -279,7 +228,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -354,23 +303,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -406,23 +338,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -599,260 +514,139 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="3" width="12.19921875" customWidth="1"/>
-    <col min="4" max="4" width="11.59765625" customWidth="1"/>
-    <col min="5" max="5" width="13.09765625" customWidth="1"/>
+    <col min="1" max="1" width="10.125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.25" style="2" customWidth="1"/>
+    <col min="3" max="3" width="20.625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="11.625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="33.875" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="4" t="s">
+      <c r="D4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="4" t="s">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="H5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="H6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="H7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="H8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="H9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="H10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="H11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="H12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-    </row>
-    <row r="14" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-    </row>
-    <row r="15" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-    </row>
-    <row r="16" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-    </row>
-    <row r="17" spans="8:9" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-    </row>
-    <row r="18" spans="8:9" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-    </row>
-    <row r="19" spans="8:9" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-    </row>
-    <row r="20" spans="8:9" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-    </row>
-    <row r="21" spans="8:9" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-    </row>
-    <row r="22" spans="8:9" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-    </row>
-    <row r="23" spans="8:9" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-    </row>
-    <row r="24" spans="8:9" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-    </row>
-    <row r="25" spans="8:9" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-    </row>
-    <row r="26" spans="8:9" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-    </row>
-    <row r="27" spans="8:9" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-    </row>
-    <row r="28" spans="8:9" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-    </row>
-    <row r="29" spans="8:9" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-    </row>
-    <row r="30" spans="8:9" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-    </row>
-    <row r="31" spans="8:9" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-    </row>
-    <row r="32" spans="8:9" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-    </row>
-    <row r="33" spans="8:9" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E6">
+      <formula1>COUNTIF($C$2:$C$201,E2)=1</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
